--- a/04_memo/map08.xlsx
+++ b/04_memo/map08.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD53D5-8B50-408C-A75F-8A3429F9D33E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9FEE36-F207-4A02-B794-594C660252A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -723,512 +723,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="221">
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="156">
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -2780,7 +2275,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="T14" sqref="T14:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2929,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -3007,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3199,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3223,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3280,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -3352,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -3454,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4">
         <v>1</v>
@@ -3511,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3535,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U13" s="1">
         <v>1</v>
@@ -3805,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -3920,248 +3415,248 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M4:N4 M6:N10 A12:K16 A18:K18 A17:E17 R6:T10 Q4:T5">
-    <cfRule type="cellIs" dxfId="220" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="165" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A11:K11 A6:L10 A5:F5">
-    <cfRule type="cellIs" dxfId="207" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="147" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="149" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="151" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="152" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="153" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="156" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:N16 L18:N18 S17:T17 R11:T16 Q18:T18">
-    <cfRule type="cellIs" dxfId="194" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="138" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="139" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N5">
-    <cfRule type="cellIs" dxfId="181" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="122" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="124" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="125" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="126" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="127" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="128" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:N17 R17">
-    <cfRule type="cellIs" dxfId="168" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="117" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q17">
-    <cfRule type="cellIs" dxfId="142" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="87" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map08.xlsx
+++ b/04_memo/map08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A497FD24-EF0B-428F-B35C-103FC92A3C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E5FF43-E11E-4458-8DE8-EA96EE8A6658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -693,209 +693,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="923">
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="897">
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -8204,7 +8002,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8359,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -8620,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -8674,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
@@ -8761,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -8821,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" s="1">
         <v>1</v>
@@ -8908,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -8962,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -9052,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -9106,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
@@ -9223,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -9344,166 +9142,166 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A18:C18 H12:K13 A15:B15 E15:F15 E18:I18 A12 E12:F12 H15:I15 M9:M10 C12 A17:B17">
-    <cfRule type="cellIs" dxfId="922" priority="1548" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="1548" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="921" priority="1549" operator="equal">
+    <cfRule type="cellIs" dxfId="895" priority="1549" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="1550" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="1550" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="1551" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="1551" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="1552" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="1552" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="1553" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="1553" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="1554" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="1555" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="1556" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="1554" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="889" priority="1555" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="888" priority="1556" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="1557" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="1558" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="1557" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="886" priority="1558" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="1559" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="1560" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="1559" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="884" priority="1560" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 J10:L10 H11:K11 A4:I4 A18:I18 H17:I17 A13:C13 H13:I15 E13:F17 H7:I9 H5:I5 A9:C9 E5:F8 A10:A12 A5:B8 C10:I12 A14:B17">
-    <cfRule type="cellIs" dxfId="909" priority="1535" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="1535" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="1536" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="1536" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="1537" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="1537" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="906" priority="1538" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="1538" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="1539" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="1539" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="1540" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="1540" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="1541" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="1542" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="1543" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="1541" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="876" priority="1542" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="875" priority="1543" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="1544" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="899" priority="1545" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="1544" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="873" priority="1545" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="1546" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="1547" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="1546" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="871" priority="1547" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:M12 M13">
-    <cfRule type="cellIs" dxfId="896" priority="1522" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="1522" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="1523" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="1523" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="1524" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="1524" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="1525" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="1525" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="1526" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="1526" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="1527" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="1527" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="1528" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="1529" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="1530" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="1528" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="863" priority="1529" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="862" priority="1530" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="1531" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="1532" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="1531" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="860" priority="1532" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="1533" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="1534" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="1533" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="858" priority="1534" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="870" priority="1366" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="1366" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="1367" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="1367" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="1368" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="1368" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="1369" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="1369" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="1370" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="1370" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="1371" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="1371" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="1372" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="1373" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="1374" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="1372" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="850" priority="1373" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="849" priority="1374" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="1375" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="1376" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="1375" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="847" priority="1376" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="1377" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="1378" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="1377" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="845" priority="1378" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map08.xlsx
+++ b/04_memo/map08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E5FF43-E11E-4458-8DE8-EA96EE8A6658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5AE093-CF04-4F75-9BD7-7BF75173B906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -693,7 +693,2128 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="897">
+  <dxfs count="1170">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -8002,7 +10123,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8139,19 +10260,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -8163,19 +10284,19 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -8214,16 +10335,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -8235,16 +10356,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
@@ -8289,13 +10410,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -8307,13 +10428,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -8358,16 +10479,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -8379,16 +10500,16 @@
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
       <c r="P8" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="1">
         <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -8430,16 +10551,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -8451,13 +10572,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -8505,13 +10626,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
@@ -8523,13 +10644,13 @@
         <v>3</v>
       </c>
       <c r="N10" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -8577,13 +10698,13 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
@@ -8595,13 +10716,13 @@
         <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="1">
         <v>2</v>
@@ -8649,13 +10770,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
@@ -8667,19 +10788,19 @@
         <v>3</v>
       </c>
       <c r="N12" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
@@ -8718,16 +10839,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>6</v>
@@ -8739,16 +10860,16 @@
         <v>6</v>
       </c>
       <c r="N13" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -8790,16 +10911,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -8811,16 +10932,16 @@
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
       <c r="P14" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1">
         <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>1</v>
@@ -8865,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -8883,13 +11004,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -8934,16 +11055,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -8955,16 +11076,16 @@
         <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
@@ -9000,22 +11121,22 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -9027,22 +11148,22 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
       </c>
       <c r="P17" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="1">
         <v>1</v>
       </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -9141,1524 +11262,2385 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A18:C18 H12:K13 A15:B15 E15:F15 E18:I18 A12 E12:F12 H15:I15 M9:M10 C12 A17:B17">
-    <cfRule type="cellIs" dxfId="896" priority="1548" operator="equal">
+  <conditionalFormatting sqref="A18:C18 I12:K13 A15:B15 E15:F15 E18:I18 A12 E12:F12 I15 M9:M10 C12 A17:B17">
+    <cfRule type="cellIs" dxfId="1169" priority="1821" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="1549" operator="equal">
+    <cfRule type="cellIs" dxfId="1168" priority="1822" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="1550" operator="equal">
+    <cfRule type="cellIs" dxfId="1167" priority="1823" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="1551" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="1824" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="1552" operator="equal">
+    <cfRule type="cellIs" dxfId="1165" priority="1825" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="1553" operator="equal">
+    <cfRule type="cellIs" dxfId="1164" priority="1826" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="1554" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="1555" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="1556" operator="equal">
+    <cfRule type="cellIs" dxfId="1163" priority="1827" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1162" priority="1828" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1161" priority="1829" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="1557" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="1558" operator="equal">
+    <cfRule type="cellIs" dxfId="1160" priority="1830" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1159" priority="1831" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="1559" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="1560" operator="equal">
+    <cfRule type="cellIs" dxfId="1158" priority="1832" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1157" priority="1833" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9 J10:L10 H11:K11 A4:I4 A18:I18 H17:I17 A13:C13 H13:I15 E13:F17 H7:I9 H5:I5 A9:C9 E5:F8 A10:A12 A5:B8 C10:I12 A14:B17">
-    <cfRule type="cellIs" dxfId="883" priority="1535" operator="equal">
+  <conditionalFormatting sqref="K9 J10:L10 I11:K11 A4:I4 A18:I18 I17 A13:C13 E13:F17 I5 A9:C9 E5:F8 A10:A12 A5:B8 C10:G12 A14:B17 I7:I15">
+    <cfRule type="cellIs" dxfId="1156" priority="1808" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="1536" operator="equal">
+    <cfRule type="cellIs" dxfId="1155" priority="1809" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="881" priority="1537" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="1810" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="1538" operator="equal">
+    <cfRule type="cellIs" dxfId="1153" priority="1811" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="1539" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="1812" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="1540" operator="equal">
+    <cfRule type="cellIs" dxfId="1151" priority="1813" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="1541" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="1542" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="1543" operator="equal">
+    <cfRule type="cellIs" dxfId="1150" priority="1814" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1149" priority="1815" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1148" priority="1816" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="1544" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="1545" operator="equal">
+    <cfRule type="cellIs" dxfId="1147" priority="1817" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1146" priority="1818" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="1546" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="1547" operator="equal">
+    <cfRule type="cellIs" dxfId="1145" priority="1819" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1144" priority="1820" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:M12 M13">
-    <cfRule type="cellIs" dxfId="870" priority="1522" operator="equal">
+    <cfRule type="cellIs" dxfId="1143" priority="1795" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="1523" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="1796" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="1524" operator="equal">
+    <cfRule type="cellIs" dxfId="1141" priority="1797" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="1525" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="1798" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="1526" operator="equal">
+    <cfRule type="cellIs" dxfId="1139" priority="1799" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="1527" operator="equal">
+    <cfRule type="cellIs" dxfId="1138" priority="1800" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="1528" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="1529" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="1530" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="1801" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1136" priority="1802" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1135" priority="1803" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="1531" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="1532" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="1804" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1133" priority="1805" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="1533" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="1534" operator="equal">
+    <cfRule type="cellIs" dxfId="1132" priority="1806" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1131" priority="1807" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="857" priority="1366" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="1639" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="1367" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="1640" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="1368" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="1641" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="1369" operator="equal">
+    <cfRule type="cellIs" dxfId="1127" priority="1642" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="1370" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="1643" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="1371" operator="equal">
+    <cfRule type="cellIs" dxfId="1125" priority="1644" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="1372" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="1373" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="1374" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="1645" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1123" priority="1646" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1122" priority="1647" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="1375" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="1376" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="1648" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1120" priority="1649" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="1377" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="1378" operator="equal">
+    <cfRule type="cellIs" dxfId="1119" priority="1650" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1118" priority="1651" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="844" priority="1340" operator="equal">
+    <cfRule type="cellIs" dxfId="1117" priority="1613" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="1341" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="1614" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="1342" operator="equal">
+    <cfRule type="cellIs" dxfId="1115" priority="1615" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="1343" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="1616" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="1344" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="1617" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="1345" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="1618" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="1346" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="1347" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="1348" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="1619" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1110" priority="1620" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1109" priority="1621" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="1349" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="1350" operator="equal">
+    <cfRule type="cellIs" dxfId="1108" priority="1622" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1107" priority="1623" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="1351" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="1352" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="1624" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1105" priority="1625" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="831" priority="1327" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="1600" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="1328" operator="equal">
+    <cfRule type="cellIs" dxfId="1103" priority="1601" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="1329" operator="equal">
+    <cfRule type="cellIs" dxfId="1102" priority="1602" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="1330" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="1603" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="1331" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="1604" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="1332" operator="equal">
+    <cfRule type="cellIs" dxfId="1099" priority="1605" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="1333" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="1334" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="1335" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="1606" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1097" priority="1607" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1096" priority="1608" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="1336" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="1337" operator="equal">
+    <cfRule type="cellIs" dxfId="1095" priority="1609" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1094" priority="1610" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="1338" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="1339" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="1611" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1092" priority="1612" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 A9:C9">
-    <cfRule type="cellIs" dxfId="818" priority="1314" operator="equal">
+  <conditionalFormatting sqref="A9:C9">
+    <cfRule type="cellIs" dxfId="1091" priority="1587" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="1315" operator="equal">
+    <cfRule type="cellIs" dxfId="1090" priority="1588" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="1316" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="1589" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="1317" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="1590" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="1318" operator="equal">
+    <cfRule type="cellIs" dxfId="1087" priority="1591" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="1319" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="1592" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="1320" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="1321" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="1322" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="1593" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1084" priority="1594" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1083" priority="1595" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="1323" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="1324" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="1596" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1081" priority="1597" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="1325" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="1326" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="1598" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1079" priority="1599" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5 H5">
-    <cfRule type="cellIs" dxfId="805" priority="1236" operator="equal">
+  <conditionalFormatting sqref="E5:F5">
+    <cfRule type="cellIs" dxfId="1078" priority="1509" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="1237" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="1510" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="1238" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="1511" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="1239" operator="equal">
+    <cfRule type="cellIs" dxfId="1075" priority="1512" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="1240" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="1513" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="1241" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="1514" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="1242" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="1243" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="1244" operator="equal">
+    <cfRule type="cellIs" dxfId="1072" priority="1515" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1071" priority="1516" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1070" priority="1517" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="1245" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="1246" operator="equal">
+    <cfRule type="cellIs" dxfId="1069" priority="1518" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1068" priority="1519" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="1247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="1248" operator="equal">
+    <cfRule type="cellIs" dxfId="1067" priority="1520" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1066" priority="1521" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17 H17:I17">
-    <cfRule type="cellIs" dxfId="792" priority="1171" operator="equal">
+  <conditionalFormatting sqref="E17:F17 I17">
+    <cfRule type="cellIs" dxfId="1065" priority="1444" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="1172" operator="equal">
+    <cfRule type="cellIs" dxfId="1064" priority="1445" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="1173" operator="equal">
+    <cfRule type="cellIs" dxfId="1063" priority="1446" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="1174" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="1447" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="1175" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="1448" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="1176" operator="equal">
+    <cfRule type="cellIs" dxfId="1060" priority="1449" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="1177" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="1178" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="1179" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="1450" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1058" priority="1451" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1057" priority="1452" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="1180" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="1181" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="1453" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1055" priority="1454" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="1182" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="1183" operator="equal">
+    <cfRule type="cellIs" dxfId="1054" priority="1455" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1053" priority="1456" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="779" priority="976" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="1249" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="1051" priority="1250" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="1251" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="1252" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="1048" priority="1253" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="1047" priority="1254" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="982" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="983" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="984" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="1255" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1045" priority="1256" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1044" priority="1257" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="985" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="1043" priority="1258" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1042" priority="1259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="987" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="1260" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1040" priority="1261" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="cellIs" dxfId="766" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="1039" priority="1236" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="1038" priority="1237" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="1238" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="1036" priority="1239" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="967" operator="equal">
+    <cfRule type="cellIs" dxfId="1035" priority="1240" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="968" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="1241" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="969" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="970" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="1242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1032" priority="1243" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1031" priority="1244" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="972" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="973" operator="equal">
+    <cfRule type="cellIs" dxfId="1030" priority="1245" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1029" priority="1246" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="974" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="975" operator="equal">
+    <cfRule type="cellIs" dxfId="1028" priority="1247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1027" priority="1248" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11 E11:F11 C11">
-    <cfRule type="cellIs" dxfId="753" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="1026" priority="1223" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="1224" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="1225" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="953" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="1226" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="1227" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="1021" priority="1228" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="956" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="957" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="1229" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1019" priority="1230" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1018" priority="1231" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="959" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="1232" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1016" priority="1233" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="961" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="1234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1014" priority="1235" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="740" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="1210" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="1211" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="939" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="1212" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="1213" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="1214" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="1215" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="943" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="944" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="1007" priority="1216" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1006" priority="1217" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1005" priority="1218" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="946" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="1219" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1003" priority="1220" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="948" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="1221" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1001" priority="1222" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="727" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="1184" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="1185" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="1186" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="1187" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="1188" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="1189" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="917" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="918" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="1190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="993" priority="1191" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="992" priority="1192" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="920" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="1193" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="990" priority="1194" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="922" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="1195" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="988" priority="1196" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14 H14:I14 E14:F14">
-    <cfRule type="cellIs" dxfId="714" priority="885" operator="equal">
+  <conditionalFormatting sqref="A14:B14 I14 E14:F14">
+    <cfRule type="cellIs" dxfId="987" priority="1158" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="1159" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="1160" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="1161" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="1162" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="1163" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="891" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="892" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="1164" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="980" priority="1165" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="979" priority="1166" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="894" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="1167" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="977" priority="1168" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="896" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="897" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="1169" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="975" priority="1170" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="701" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="1145" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="1146" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="1147" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="1148" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="1149" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="1150" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="878" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="879" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="1151" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="967" priority="1152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="966" priority="1153" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="881" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="1154" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="964" priority="1155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="883" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="1156" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="962" priority="1157" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 E16:F16">
-    <cfRule type="cellIs" dxfId="688" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="1106" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="1107" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="835" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="1108" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="836" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="1109" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="837" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="1110" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="1111" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="839" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="840" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="841" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="1112" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="954" priority="1113" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="953" priority="1114" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="842" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="1115" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="951" priority="1116" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="844" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="1117" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="949" priority="1118" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
-    <cfRule type="cellIs" dxfId="675" priority="820" operator="equal">
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="948" priority="1093" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="1094" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="1095" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="1096" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="1097" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="825" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="1098" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="826" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="827" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="1099" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="941" priority="1100" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="940" priority="1101" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="829" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="939" priority="1102" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="938" priority="1103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="831" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="937" priority="1104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="936" priority="1105" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G10">
-    <cfRule type="cellIs" dxfId="662" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="935" priority="1080" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="808" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="1081" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="1082" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1083" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="1084" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="1085" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="813" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="814" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="1086" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="928" priority="1087" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="927" priority="1088" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="816" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="1089" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="925" priority="1090" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="818" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="1091" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="923" priority="1092" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 E13:F13">
-    <cfRule type="cellIs" dxfId="649" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="1015" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="743" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="1016" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="1017" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="745" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="1018" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="1019" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="747" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="1020" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="748" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="749" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="1021" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="915" priority="1022" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="914" priority="1023" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="751" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="1024" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="912" priority="1025" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="753" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="1026" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="910" priority="1027" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6 E6:F6">
-    <cfRule type="cellIs" dxfId="636" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="909" priority="924" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="925" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="907" priority="926" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="927" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="905" priority="928" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="929" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="657" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="658" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="930" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="902" priority="931" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="901" priority="932" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="660" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="933" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="899" priority="934" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="662" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="935" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="897" priority="936" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:W4 O10:Q12 O18:W18 O5:P5 R6 O7:P9 U9:W9 O17:P17 O13:P15 R14 U13:W13 S10 V5:W8 W10:W12 V14:W17 R8 S12 U12 U10 R16">
-    <cfRule type="cellIs" dxfId="623" priority="638" operator="equal">
+  <conditionalFormatting sqref="O4:W4 O18:W18 O5 R6 U9:W9 O17 O7:O15 R14 U13:W13 S10 V5:W8 W10:W12 V14:W17 R8 S12 U12 U10 R16 Q10:Q12">
+    <cfRule type="cellIs" dxfId="896" priority="911" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="895" priority="912" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="913" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="914" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="915" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="916" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="644" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="645" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="917" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="889" priority="918" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="888" priority="919" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="647" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="920" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="886" priority="921" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="649" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="922" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="884" priority="923" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K4 J8:M8 J6 M4:N4 K7:M8">
-    <cfRule type="cellIs" dxfId="610" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="898" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="899" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="900" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="901" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="902" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="903" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="631" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="632" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="904" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="876" priority="905" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="875" priority="906" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="634" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="907" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="873" priority="908" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="636" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="909" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="871" priority="910" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18:N18 J14:J16 J17:M17">
-    <cfRule type="cellIs" dxfId="597" priority="612" operator="equal">
+  <conditionalFormatting sqref="J18:N18 J14 K17:M17">
+    <cfRule type="cellIs" dxfId="870" priority="885" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="886" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="887" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="888" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="889" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="890" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="618" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="619" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="891" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="863" priority="892" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="862" priority="893" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="621" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="894" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="860" priority="895" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="623" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="896" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="858" priority="897" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:M7">
-    <cfRule type="cellIs" dxfId="584" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="872" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="873" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="874" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="875" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="876" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="877" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="605" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="606" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="878" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="850" priority="879" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="849" priority="880" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="608" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="881" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="847" priority="882" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="610" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="883" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="845" priority="884" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:M5 J5:J17">
-    <cfRule type="cellIs" dxfId="571" priority="586" operator="equal">
+  <conditionalFormatting sqref="J5:M5 J5:J14">
+    <cfRule type="cellIs" dxfId="844" priority="859" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="860" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="861" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="862" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="863" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="864" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="592" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="593" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="865" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="837" priority="866" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="836" priority="867" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="595" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="868" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="834" priority="869" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="597" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="870" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="832" priority="871" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="558" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="846" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="847" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="848" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="849" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="850" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="851" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="579" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="580" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="852" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="824" priority="853" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="823" priority="854" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="582" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="855" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="821" priority="856" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="584" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="857" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="819" priority="858" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
-    <cfRule type="cellIs" dxfId="545" priority="560" operator="equal">
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="818" priority="833" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="834" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="835" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="836" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="837" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="838" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="566" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="567" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="839" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="811" priority="840" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="810" priority="841" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="569" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="842" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="808" priority="843" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="571" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="844" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="806" priority="845" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:P6">
-    <cfRule type="cellIs" dxfId="532" priority="547" operator="equal">
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="805" priority="820" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="821" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="822" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="823" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="824" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="825" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="553" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="554" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="826" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="798" priority="827" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="797" priority="828" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="556" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="829" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="795" priority="830" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="558" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="831" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="793" priority="832" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:I16">
-    <cfRule type="cellIs" dxfId="519" priority="534" operator="equal">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="792" priority="807" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="808" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="809" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="810" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="811" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="812" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="540" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="541" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="813" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="785" priority="814" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="784" priority="815" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="543" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="816" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="782" priority="817" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="545" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="818" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="780" priority="819" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O16:P16">
-    <cfRule type="cellIs" dxfId="506" priority="521" operator="equal">
+  <conditionalFormatting sqref="O16">
+    <cfRule type="cellIs" dxfId="779" priority="794" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="795" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="796" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="797" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="798" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="799" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="527" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="528" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="800" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="772" priority="801" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="771" priority="802" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="530" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="803" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="769" priority="804" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="532" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="805" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="767" priority="806" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q7">
-    <cfRule type="cellIs" dxfId="493" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="768" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="769" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="770" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="771" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="772" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="773" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="501" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="502" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="774" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="759" priority="775" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="758" priority="776" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="504" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="505" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="777" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="756" priority="778" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="506" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="779" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="754" priority="780" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="480" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="755" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="756" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="757" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="758" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="759" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="760" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="488" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="489" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="761" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="746" priority="762" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="745" priority="763" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="491" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="764" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="743" priority="765" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="493" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="766" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="741" priority="767" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:S5">
-    <cfRule type="cellIs" dxfId="467" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="742" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="743" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="744" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="745" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="746" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="747" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="475" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="476" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="748" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="733" priority="749" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="732" priority="750" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="478" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="751" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="730" priority="752" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="480" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="753" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="728" priority="754" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="cellIs" dxfId="454" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="729" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="730" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="731" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="732" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="733" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="734" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="462" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="463" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="735" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="720" priority="736" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="719" priority="737" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="465" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="738" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="717" priority="739" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="467" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="740" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="715" priority="741" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:T9">
-    <cfRule type="cellIs" dxfId="441" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="716" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="717" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="718" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="719" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="720" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="721" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="449" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="450" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="722" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="707" priority="723" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="706" priority="724" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="452" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="725" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="704" priority="726" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="454" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="727" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="702" priority="728" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:Q17">
-    <cfRule type="cellIs" dxfId="428" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="703" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="704" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="705" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="706" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="707" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="708" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="436" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="437" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="709" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="694" priority="710" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="693" priority="711" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="439" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="712" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="713" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="441" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="714" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="689" priority="715" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13 S13">
+    <cfRule type="cellIs" dxfId="688" priority="677" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="687" priority="678" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="686" priority="679" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="685" priority="680" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="681" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="683" priority="682" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="683" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="681" priority="684" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="680" priority="685" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="679" priority="686" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="678" priority="687" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="677" priority="688" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="689" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13 T17">
+    <cfRule type="cellIs" dxfId="675" priority="664" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="674" priority="665" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="673" priority="666" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="672" priority="667" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="671" priority="668" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="669" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="669" priority="670" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="668" priority="671" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="672" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="666" priority="673" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="665" priority="674" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="664" priority="675" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="663" priority="676" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:S17">
+    <cfRule type="cellIs" dxfId="662" priority="651" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="661" priority="652" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="660" priority="653" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="659" priority="654" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="655" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="657" priority="656" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="656" priority="657" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="658" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="654" priority="659" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="653" priority="660" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="652" priority="661" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="651" priority="662" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="650" priority="663" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:R13">
+    <cfRule type="cellIs" dxfId="649" priority="638" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="648" priority="639" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="647" priority="640" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="646" priority="641" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="645" priority="642" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="644" priority="643" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="644" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="645" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="646" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="640" priority="647" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="648" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="638" priority="649" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="650" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G17 E17:G17">
+    <cfRule type="cellIs" dxfId="636" priority="625" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="635" priority="626" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="634" priority="627" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="633" priority="628" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="632" priority="629" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="630" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="630" priority="631" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="629" priority="632" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="633" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="627" priority="634" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="626" priority="635" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="636" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="637" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:G13 D17">
+    <cfRule type="cellIs" dxfId="623" priority="612" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="622" priority="613" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="621" priority="614" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="620" priority="615" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="619" priority="616" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="618" priority="617" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="617" priority="618" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="619" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="615" priority="620" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="614" priority="621" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="622" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="612" priority="623" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="611" priority="624" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G8">
+    <cfRule type="cellIs" dxfId="610" priority="599" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="609" priority="600" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="608" priority="601" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="602" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="606" priority="603" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="605" priority="604" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="605" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="606" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="602" priority="607" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="608" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="609" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="599" priority="610" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="611" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:G9">
+    <cfRule type="cellIs" dxfId="597" priority="586" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="596" priority="587" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="588" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="594" priority="589" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="593" priority="590" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="591" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="591" priority="592" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="590" priority="593" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="594" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="588" priority="595" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="596" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="597" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="585" priority="598" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5 D9">
+    <cfRule type="cellIs" dxfId="584" priority="573" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="574" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="582" priority="575" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="581" priority="576" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="577" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="579" priority="578" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="578" priority="579" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="580" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="576" priority="581" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="575" priority="582" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="583" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="573" priority="584" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="585" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="cellIs" dxfId="571" priority="560" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="570" priority="561" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="569" priority="562" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="568" priority="563" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="567" priority="564" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="566" priority="565" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="566" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="567" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="568" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="569" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="570" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="560" priority="571" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="572" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="cellIs" dxfId="558" priority="547" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="557" priority="548" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="549" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="555" priority="550" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="554" priority="551" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="552" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="552" priority="553" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="551" priority="554" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="555" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="549" priority="556" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="557" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="558" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="559" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C12">
+    <cfRule type="cellIs" dxfId="545" priority="534" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="535" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="543" priority="536" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="542" priority="537" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="538" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="540" priority="539" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="539" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="541" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="542" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="536" priority="543" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="544" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="534" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="533" priority="546" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="cellIs" dxfId="532" priority="521" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="531" priority="522" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="523" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="524" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="528" priority="525" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="527" priority="526" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="527" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="528" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="524" priority="529" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="530" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="531" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="521" priority="532" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="533" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="cellIs" dxfId="519" priority="508" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="518" priority="509" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="510" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="511" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="515" priority="512" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="513" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="514" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="515" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="516" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="517" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="518" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="519" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="520" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" dxfId="506" priority="495" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="496" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="497" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="503" priority="498" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="499" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="501" priority="500" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="500" priority="501" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="502" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="503" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="497" priority="504" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="505" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="506" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="494" priority="507" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="cellIs" dxfId="493" priority="482" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="483" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="491" priority="484" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="485" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="486" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="488" priority="487" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="488" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="489" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="490" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="491" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="492" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="482" priority="493" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="494" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="cellIs" dxfId="480" priority="469" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="470" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="471" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="477" priority="472" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="473" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="474" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="475" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="476" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="477" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="478" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="479" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="480" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="481" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6 T8">
+    <cfRule type="cellIs" dxfId="467" priority="456" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="457" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="458" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="459" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="460" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="461" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="461" priority="462" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="463" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="464" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="465" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="466" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="467" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="468" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14 T16">
+    <cfRule type="cellIs" dxfId="454" priority="443" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="444" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="445" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="446" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="447" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="448" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="449" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="450" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="451" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="452" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="453" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="443" priority="454" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="455" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U8">
+    <cfRule type="cellIs" dxfId="441" priority="430" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="431" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="432" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="433" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="434" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="435" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="436" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="437" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="438" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="439" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="440" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="441" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="442" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10:V12">
+    <cfRule type="cellIs" dxfId="428" priority="417" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="418" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="419" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="425" priority="420" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="421" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="422" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="423" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="424" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="425" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="419" priority="426" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="427" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="428" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="429" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14:U17">
     <cfRule type="cellIs" dxfId="415" priority="404" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10699,7 +13681,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T13 T17">
+  <conditionalFormatting sqref="S6 S8">
     <cfRule type="cellIs" dxfId="402" priority="391" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10740,7 +13722,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:S17">
+  <conditionalFormatting sqref="R7:T7">
     <cfRule type="cellIs" dxfId="389" priority="378" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10781,7 +13763,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:R13">
+  <conditionalFormatting sqref="S11 U11">
     <cfRule type="cellIs" dxfId="376" priority="365" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10822,7 +13804,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G17 E17:G17">
+  <conditionalFormatting sqref="T10:T12">
     <cfRule type="cellIs" dxfId="363" priority="352" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10863,7 +13845,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:G13 D17">
+  <conditionalFormatting sqref="S14 S16">
     <cfRule type="cellIs" dxfId="350" priority="339" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10904,7 +13886,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G8">
+  <conditionalFormatting sqref="R15:T15">
     <cfRule type="cellIs" dxfId="337" priority="326" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10945,7 +13927,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G9">
+  <conditionalFormatting sqref="K6:M6">
     <cfRule type="cellIs" dxfId="324" priority="313" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10986,7 +13968,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5 D9">
+  <conditionalFormatting sqref="K16:M16">
     <cfRule type="cellIs" dxfId="311" priority="300" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11027,7 +14009,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="K14:M15">
     <cfRule type="cellIs" dxfId="298" priority="287" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11068,7 +14050,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="N8 N14">
     <cfRule type="cellIs" dxfId="285" priority="274" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11109,7 +14091,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C12">
+  <conditionalFormatting sqref="H12:H13">
     <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11150,7 +14132,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
+  <conditionalFormatting sqref="H10:H11">
     <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11191,7 +14173,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
+  <conditionalFormatting sqref="H9">
     <cfRule type="cellIs" dxfId="246" priority="235" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11232,7 +14214,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="H8 H6">
     <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11273,7 +14255,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B12">
+  <conditionalFormatting sqref="H14:H17">
     <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11314,7 +14296,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C17">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11355,7 +14337,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6 T8">
+  <conditionalFormatting sqref="H5:H17">
     <cfRule type="cellIs" dxfId="194" priority="183" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11396,7 +14378,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14 T16">
+  <conditionalFormatting sqref="P12:P13">
     <cfRule type="cellIs" dxfId="181" priority="170" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11437,7 +14419,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U8">
+  <conditionalFormatting sqref="P10:P11">
     <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11478,7 +14460,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:V12">
+  <conditionalFormatting sqref="P9">
     <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11519,7 +14501,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:U17">
+  <conditionalFormatting sqref="P8 P6">
     <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11560,7 +14542,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6 S8">
+  <conditionalFormatting sqref="P14:P17">
     <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11601,7 +14583,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:T7">
+  <conditionalFormatting sqref="P7">
     <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11642,7 +14624,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11 U11">
+  <conditionalFormatting sqref="P5:P17">
     <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11683,7 +14665,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10:T12">
+  <conditionalFormatting sqref="J10:J12">
     <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11724,7 +14706,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14 S16">
+  <conditionalFormatting sqref="N9:N13">
     <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11765,7 +14747,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:T15">
+  <conditionalFormatting sqref="N9:N13">
     <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11806,7 +14788,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:M6">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11847,7 +14829,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:M16">
+  <conditionalFormatting sqref="N15:N17">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11888,7 +14870,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:M15">
+  <conditionalFormatting sqref="J15:J17">
     <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11929,7 +14911,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N17">
+  <conditionalFormatting sqref="N5:N7">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
